--- a/src/main/resources/reports/AccpacARInvoices.xlsx
+++ b/src/main/resources/reports/AccpacARInvoices.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="19440" windowHeight="14535" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="19440" windowHeight="14535"/>
   </bookViews>
   <sheets>
     <sheet name="Invoices" sheetId="1" r:id="rId1"/>
@@ -457,8 +457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BX3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -614,8 +614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/main/resources/reports/AccpacARInvoices.xlsx
+++ b/src/main/resources/reports/AccpacARInvoices.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
   <si>
     <t>CNTBTCH</t>
   </si>
@@ -54,12 +54,6 @@
     <t>INVCTYPE</t>
   </si>
   <si>
-    <t>1200</t>
-  </si>
-  <si>
-    <t>1400</t>
-  </si>
-  <si>
     <t>CNTLINE</t>
   </si>
   <si>
@@ -75,40 +69,10 @@
     <t>COMMENT</t>
   </si>
   <si>
-    <t>CACCSE</t>
-  </si>
-  <si>
-    <t>Commercial Sales - Eastern</t>
-  </si>
-  <si>
-    <t>CACCSN</t>
-  </si>
-  <si>
-    <t>Commercial Sales - Northern</t>
-  </si>
-  <si>
-    <t>ITEM</t>
-  </si>
-  <si>
-    <t>Swivel Mounting Bracket</t>
-  </si>
-  <si>
-    <t>Can support equipment of 60 lbs or less.</t>
-  </si>
-  <si>
     <t>CNTPAYM</t>
   </si>
   <si>
     <t>OPTFIELD</t>
-  </si>
-  <si>
-    <t>IN1234A</t>
-  </si>
-  <si>
-    <t>IN0987A</t>
-  </si>
-  <si>
-    <t>Invoice Description</t>
   </si>
 </sst>
 </file>
@@ -545,63 +509,13 @@
       </c>
     </row>
     <row r="2" spans="1:76" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>12</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" s="1">
-        <v>43849</v>
-      </c>
-      <c r="I2">
-        <v>2</v>
-      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="1"/>
       <c r="BX2" s="1"/>
     </row>
     <row r="3" spans="1:76" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>12</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" s="1">
-        <v>43849</v>
-      </c>
-      <c r="I3">
-        <v>2</v>
-      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="1"/>
       <c r="BX3" s="1"/>
     </row>
   </sheetData>
@@ -612,7 +526,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -637,82 +551,19 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>13</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>20</v>
-      </c>
-      <c r="D2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>40</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>0</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>20</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="3">
-        <v>150</v>
-      </c>
-      <c r="G4" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -743,7 +594,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -773,7 +624,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -804,10 +655,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/reports/AccpacARInvoices.xlsx
+++ b/src/main/resources/reports/AccpacARInvoices.xlsx
@@ -108,13 +108,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -421,9 +424,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BX3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -433,7 +434,7 @@
     <col min="5" max="5" width="12.85546875" customWidth="1"/>
     <col min="6" max="6" width="12.5703125" customWidth="1"/>
     <col min="7" max="7" width="24.85546875" customWidth="1"/>
-    <col min="8" max="8" width="19" customWidth="1"/>
+    <col min="8" max="8" width="19" style="4" customWidth="1"/>
     <col min="9" max="9" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.7109375" bestFit="1" customWidth="1"/>
@@ -479,7 +480,7 @@
     <col min="76" max="76" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:76" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -501,7 +502,7 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
       <c r="I1" t="s">
@@ -510,12 +511,10 @@
     </row>
     <row r="2" spans="1:76" x14ac:dyDescent="0.3">
       <c r="G2" s="2"/>
-      <c r="H2" s="1"/>
       <c r="BX2" s="1"/>
     </row>
     <row r="3" spans="1:76" x14ac:dyDescent="0.3">
       <c r="G3" s="2"/>
-      <c r="H3" s="1"/>
       <c r="BX3" s="1"/>
     </row>
   </sheetData>
